--- a/Outputs/PtX_demand_CY.xlsx
+++ b/Outputs/PtX_demand_CY.xlsx
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -502,17 +502,23 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>4.59950970830188e-05</v>
+      </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>6.723258210591231e-10</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.880690975047868e-05</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -521,23 +527,17 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>4.59950970830188e-05</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>6.723258210591231e-10</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.880690975047868e-05</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -556,7 +556,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -575,7 +575,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -584,17 +584,21 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>1.544500418921626e-05</v>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>2.752522045902856e-06</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -603,21 +607,17 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>1.544500418921626e-05</v>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>2.752522045902856e-06</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -626,17 +626,23 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.000860099140968865</v>
+      </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>0.0006212458405224171</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>0.001302035356546803</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -644,24 +650,20 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>0.000860099140968865</v>
-      </c>
+      <c r="E9" t="n">
+        <v>0.0006371951440119037</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>0.0006212458405224171</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>0.001302035356546803</v>
-      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -670,7 +672,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.0006371951440119037</v>
+        <v>0.0003052016463952433</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -682,7 +684,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -691,19 +693,27 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.0003052016463952433</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
+        <v>0.0009423967904071469</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0009215392422411</v>
+      </c>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>6.723258210591231e-10</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0006428052723187986</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>0.001302035356546803</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -712,17 +722,23 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0.0002201371630914197</v>
+      </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>5.62810971135938e-08</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.630756103747258e-05</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -731,23 +747,17 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>0.0002201371630914197</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>5.62810971135938e-08</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.630756103747258e-05</v>
-      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -766,7 +776,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -775,17 +785,21 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>8.204537662679023e-11</v>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>7.735919660828944e-12</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -795,12 +809,12 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>8.204537662679023e-11</v>
+        <v>1.863792945036149e-05</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>7.735919660828944e-12</v>
+        <v>5.314437067099017e-06</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -808,7 +822,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -817,21 +831,17 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>1.863792945036149e-05</v>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>5.314437067099017e-06</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -840,17 +850,23 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0.0003900651332413393</v>
+      </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0.0004031972244269338</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0.001473246606807172</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -858,24 +874,20 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>0.0003900651332413393</v>
-      </c>
+      <c r="E19" t="n">
+        <v>0.0005726142571723211</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>0.0004031972244269338</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>0.001473246606807172</v>
-      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -884,7 +896,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0.0005726142571723211</v>
+        <v>0.0009991952490496889</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -896,7 +908,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -905,19 +917,27 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>0.0009991952490496889</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
+        <v>0.00157180950622201</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.000628840307828497</v>
+      </c>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>5.62810971135938e-08</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0004348192302674251</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0.001473246606807172</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -926,17 +946,23 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.0003057668397081666</v>
+      </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>9.539192625553469e-08</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.169633575004193e-05</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -945,23 +971,17 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>0.0003057668397081666</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
-        <v>9.539192625553469e-08</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4.169633575004193e-05</v>
-      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -980,7 +1000,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -989,17 +1009,21 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>8.910218250187293e-10</v>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>1.587538510713578e-10</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1009,12 +1033,12 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>8.910218250187293e-10</v>
+        <v>3.357789686059986e-06</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>1.587538510713578e-10</v>
+        <v>1.568626888927853e-06</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1022,7 +1046,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1032,20 +1056,22 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>3.357789686059986e-06</v>
+        <v>3.262989523006435e-12</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>1.568626888927853e-06</v>
+        <v>6.966879730170634e-12</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1.008722098966015e-10</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1055,22 +1081,22 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>3.262989523006435e-12</v>
+        <v>5.017413726574574e-05</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>6.966879730170634e-12</v>
+        <v>0.000103362374024858</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>1.008722098966015e-10</v>
+        <v>0.002098804903889274</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1078,24 +1104,20 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
-        <v>5.017413726574574e-05</v>
-      </c>
+      <c r="E29" t="n">
+        <v>0.0005096977133942317</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="n">
-        <v>0.000103362374024858</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>0.002098804903889274</v>
-      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1104,7 +1126,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.0005096977133942317</v>
+        <v>0.00207384498837211</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1116,7 +1138,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1125,14 +1147,22 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>0.00207384498837211</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
+        <v>0.002583542701766342</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0003592996609447869</v>
+      </c>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>9.539192625553469e-08</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.0001466275023845585</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>0.002098805004761484</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Outputs/PtX_demand_CY.xlsx
+++ b/Outputs/PtX_demand_CY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,7 +598,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -607,17 +607,21 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.0001771454336565386</v>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>1.295809223857273e-05</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -626,23 +630,17 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>0.000860099140968865</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
-        <v>0.0006212458405224171</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>0.001302035356546803</v>
-      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -650,20 +648,26 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0.0006371951440119037</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.000860099140968865</v>
+      </c>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>0.0018395483296547</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0006212458405224171</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>0.001302035356546803</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -671,20 +675,26 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>0.0003052016463952433</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.008350637456186499</v>
+      </c>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>0.0168124798601847</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0038679851530649</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>0.01275218025438121</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -693,71 +703,69 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.0009423967904071469</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.0009215392422411</v>
-      </c>
+        <v>0.0006371951440119037</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
-        <v>6.723258210591231e-10</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.0006428052723187986</v>
-      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>0.001302035356546803</v>
-      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>0.0002201371630914197</v>
-      </c>
+      <c r="E12" t="n">
+        <v>0.0003052016463952433</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>5.62810971135938e-08</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.630756103747258e-05</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>0.0009423967904071469</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.009449322132084137</v>
+      </c>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>0.01865202886216522</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.004523748517622271</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>0.01405421561092801</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -766,17 +774,23 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0.0002201371630914197</v>
+      </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>5.62810971135938e-08</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.630756103747258e-05</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -785,21 +799,17 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>8.204537662679023e-11</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>7.735919660828944e-12</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -808,21 +818,17 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>1.863792945036149e-05</v>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>5.314437067099017e-06</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -831,17 +837,21 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>8.204537662679023e-11</v>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>7.735919660828944e-12</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -851,22 +861,20 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>0.0003900651332413393</v>
+        <v>1.863792945036149e-05</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.0004031972244269338</v>
+        <v>5.314437067099017e-06</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>0.001473246606807172</v>
-      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -874,20 +882,22 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>0.0005726142571723211</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>9.714491376137427e-05</v>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>1.360251149101251e-05</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -895,9 +905,7 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>0.0009991952490496889</v>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -908,7 +916,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -916,18 +924,16 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>0.00157180950622201</v>
-      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>0.000628840307828497</v>
+        <v>0.0003900651332413393</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>5.62810971135938e-08</v>
+        <v>0.0022393872034412</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0004348192302674251</v>
+        <v>0.0004031972244269338</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
@@ -937,40 +943,44 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.0003057668397081666</v>
+        <v>0.0023818121080789</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>9.539192625553469e-08</v>
+        <v>0.0158510269869034</v>
       </c>
       <c r="I22" t="n">
-        <v>4.169633575004193e-05</v>
+        <v>0.0016958533683974</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0.01237113552010564</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0.0005726142571723211</v>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -981,15 +991,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>0.0009991952490496889</v>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1000,30 +1012,36 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>0.00157180950622201</v>
+      </c>
       <c r="F25" t="n">
-        <v>8.910218250187293e-10</v>
+        <v>0.003107797329668771</v>
       </c>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>0.01809047047144171</v>
+      </c>
       <c r="I25" t="n">
-        <v>1.587538510713578e-10</v>
+        <v>0.002144275110155838</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>0.01384438212691281</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1033,12 +1051,14 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>3.357789686059986e-06</v>
+        <v>0.0003057668397081666</v>
       </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>9.539192625553469e-08</v>
+      </c>
       <c r="I26" t="n">
-        <v>1.568626888927853e-06</v>
+        <v>4.169633575004193e-05</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1046,7 +1066,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1055,23 +1075,17 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
-        <v>3.262989523006435e-12</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="n">
-        <v>6.966879730170634e-12</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>1.008722098966015e-10</v>
-      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1080,23 +1094,17 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="n">
-        <v>5.017413726574574e-05</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="n">
-        <v>0.000103362374024858</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>0.002098804903889274</v>
-      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1104,20 +1112,22 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
-        <v>0.0005096977133942317</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>8.910218250187293e-10</v>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>1.587538510713578e-10</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1125,20 +1135,22 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="n">
-        <v>0.00207384498837211</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>3.357789686059986e-06</v>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>1.568626888927853e-06</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1146,22 +1158,168 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="n">
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>6.729120707691278e-06</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>5.294760342702713e-06</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Synthetic Liquids</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>3.262989523006435e-12</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>8.62775039789545e-11</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6.966879730170634e-12</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1.008722098966015e-10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Biogenic Liquids</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>5.017413726574574e-05</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>0.0029331147543705</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.000103362374024858</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>0.002098804903889274</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fossil Liquids</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>0.000203533811730638</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>0.0143748408573499</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.000306157425434054</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>0.01153293881819397</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Biomass [Solid]</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>0.0005096977133942317</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Renewable Energy Carrier</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0.00207384498837211</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Overall Demand</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="n">
         <v>0.002583542701766342</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.0003592996609447869</v>
-      </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="n">
-        <v>9.539192625553469e-08</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.0001466275023845585</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>0.002098805004761484</v>
+      <c r="F37" t="n">
+        <v>0.0005695625933831161</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>0.01730805108992416</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.0004580796881613153</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>0.01363174382295546</v>
       </c>
     </row>
   </sheetData>
